--- a/biology/Botanique/Shukkei-en/Shukkei-en.xlsx
+++ b/biology/Botanique/Shukkei-en/Shukkei-en.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shukkei-en (縮景園?) est un jardin japonais historique situé dans la ville de Hiroshima au Japon. Le musée préfectoral d'art de Hiroshima se trouve près du jardin.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La construction commence en 1620 durant l'époque d'Edo sur l'ordre de Asano Nagaakira, daimyo du domaine de Hiroshima. Shukkei-en a été construit par Ueda Sōko, qui a servi le seigneur Asano comme le principal administrateur du domaine et maître du thé.
 Depuis l'ère Meiji, le jardin sert de villa à la famille Asano. Quand le quartier-général impérial est transféré à Hiroshima du temps de l'empereur Meiji, celui-ci réside brièvement dans la villa. Les jardins sont ouverts au public et en 1940, la famille Asano en fait don à la préfecture d'Hiroshima. Situé à peu de distance du ground Zero du bombardement atomique de Hiroshima, Shukkei-en subit des dommages importants, puis devient un refuge pour les victimes de la guerre.
